--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF3C676-C996-4451-9B04-10F8DE7FF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72AD36A-D1F7-4B69-894D-AA8F501C7A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36855" yWindow="5715" windowWidth="28800" windowHeight="15285" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
+    <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,47 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Group of attack</t>
-  </si>
-  <si>
-    <t>Threat pattern</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>coreLang assets</t>
-  </si>
-  <si>
-    <t>Mitigation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>IAM</t>
   </si>
   <si>
-    <t>ATT&amp;CK</t>
-  </si>
-  <si>
     <t>remoteAccessMFA</t>
   </si>
   <si>
-    <t>Missing Multi-Factor Authentication (MFA) on credentials that are used for a remote access services</t>
-  </si>
-  <si>
     <t>T1110, T1133, T1078</t>
   </si>
   <si>
     <t>Application, Identity, Credentials</t>
   </si>
   <si>
-    <t>Access and Authentication</t>
-  </si>
-  <si>
-    <t>Existence of service accounts with excessive privileges</t>
-  </si>
-  <si>
     <t>Encryption</t>
   </si>
   <si>
@@ -86,12 +59,6 @@
     <t>unencryptedInfo</t>
   </si>
   <si>
-    <t>Sensitive data stored without encryption</t>
-  </si>
-  <si>
-    <t>Sensitive information stored without encryption</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -108,16 +75,83 @@
   </si>
   <si>
     <t>excessivePrivAccounts</t>
+  </si>
+  <si>
+    <t>ATT&amp;CK Techniques</t>
+  </si>
+  <si>
+    <t>ATT&amp;CK Mitigation</t>
+  </si>
+  <si>
+    <t>Target assets</t>
+  </si>
+  <si>
+    <t>Pattern description</t>
+  </si>
+  <si>
+    <t>Missing Multi-Factor Authentication (MFA) on a remote access service may enable successful authentication by brute force attacks or login with compromised credentials.</t>
+  </si>
+  <si>
+    <t>Sensitive data (e.g., credentials, keys, tokens) stored in plaintext without encryption may be susceptible to unauthorized access and compromise.</t>
+  </si>
+  <si>
+    <t>Sensitive information (e.g., credentials, keys, tokens) stored in plaintext without encryption may be susceptible to unauthorized access and compromise.</t>
+  </si>
+  <si>
+    <t>Pattern abuse case</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Identified [Data] associated to an [Application], lacking the  association {encryptCreds}</t>
+  </si>
+  <si>
+    <t>Identified [Information] associated to a [Data], where [Data] lacks the association {encryptCreds}</t>
+  </si>
+  <si>
+    <t>Group of patterns</t>
+  </si>
+  <si>
+    <t>Identity, Credentials</t>
+  </si>
+  <si>
+    <t>Identified [Identity] classified as low privilige  with association {highPrivAppIAMs}</t>
+  </si>
+  <si>
+    <t>Existence of service, guest or any other temporarily accounts with excessive permissions may facilitate initial access and lateral movement.</t>
+  </si>
+  <si>
+    <t>Identified [Credentials] associated to an [Application] classified as a remote access service, lacking the association {ConditionalAuthentication}</t>
+  </si>
+  <si>
+    <t>T1199, T1078, 1078</t>
+  </si>
+  <si>
+    <t>M1032, M1018, M1026, M1036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +177,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,118 +524,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="23.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="89.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72AD36A-D1F7-4B69-894D-AA8F501C7A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3CF810-A8DF-4E44-BF81-00E3AFC5C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>IAM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -74,9 +71,6 @@
     <t>M1036, M1032, M1030, M1017</t>
   </si>
   <si>
-    <t>excessivePrivAccounts</t>
-  </si>
-  <si>
     <t>ATT&amp;CK Techniques</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Sensitive information (e.g., credentials, keys, tokens) stored in plaintext without encryption may be susceptible to unauthorized access and compromise.</t>
   </si>
   <si>
-    <t>Pattern abuse case</t>
-  </si>
-  <si>
     <t>Pattern name</t>
   </si>
   <si>
@@ -113,22 +104,58 @@
     <t>Group of patterns</t>
   </si>
   <si>
-    <t>Identity, Credentials</t>
-  </si>
-  <si>
-    <t>Identified [Identity] classified as low privilige  with association {highPrivAppIAMs}</t>
-  </si>
-  <si>
-    <t>Existence of service, guest or any other temporarily accounts with excessive permissions may facilitate initial access and lateral movement.</t>
-  </si>
-  <si>
     <t>Identified [Credentials] associated to an [Application] classified as a remote access service, lacking the association {ConditionalAuthentication}</t>
   </si>
   <si>
-    <t>T1199, T1078, 1078</t>
-  </si>
-  <si>
     <t>M1032, M1018, M1026, M1036</t>
+  </si>
+  <si>
+    <t>T1199, T1078</t>
+  </si>
+  <si>
+    <t>Identity &amp; Authentication</t>
+  </si>
+  <si>
+    <t>shadowAdmin</t>
+  </si>
+  <si>
+    <t>Pattern impact/abuse case</t>
+  </si>
+  <si>
+    <t>User accounts that have inadvertently been assigned admin privilige may enable attackers to control accounts with unrestricted access and movement</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M1,M2</t>
+  </si>
+  <si>
+    <t>highPrivServiceAccounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identified an [Identity] classified as service account with association {highPrivAppIAMs} </t>
+  </si>
+  <si>
+    <t>Identified an [Identity] classified as not admin  with association {highPrivAppIAMs}</t>
+  </si>
+  <si>
+    <t>Identity, Priviliges</t>
+  </si>
+  <si>
+    <t>Identity, Network</t>
+  </si>
+  <si>
+    <t>Existence of service, support or any other non user accounts with excessive privileges may facilitate lateral movement and access to network resources.</t>
   </si>
 </sst>
 </file>
@@ -524,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="89.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="63.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" style="4" customWidth="1"/>
@@ -542,123 +569,158 @@
     <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3CF810-A8DF-4E44-BF81-00E3AFC5C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB6A62-0034-4E39-ABB9-C3BB1CC69CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -95,18 +95,9 @@
     <t>Pattern name</t>
   </si>
   <si>
-    <t>Identified [Data] associated to an [Application], lacking the  association {encryptCreds}</t>
-  </si>
-  <si>
-    <t>Identified [Information] associated to a [Data], where [Data] lacks the association {encryptCreds}</t>
-  </si>
-  <si>
     <t>Group of patterns</t>
   </si>
   <si>
-    <t>Identified [Credentials] associated to an [Application] classified as a remote access service, lacking the association {ConditionalAuthentication}</t>
-  </si>
-  <si>
     <t>M1032, M1018, M1026, M1036</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -143,26 +131,35 @@
     <t>highPrivServiceAccounts</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified an [Identity] classified as service account with association {highPrivAppIAMs} </t>
-  </si>
-  <si>
-    <t>Identified an [Identity] classified as not admin  with association {highPrivAppIAMs}</t>
-  </si>
-  <si>
     <t>Identity, Priviliges</t>
   </si>
   <si>
-    <t>Identity, Network</t>
-  </si>
-  <si>
     <t>Existence of service, support or any other non user accounts with excessive privileges may facilitate lateral movement and access to network resources.</t>
+  </si>
+  <si>
+    <t>Identifies [Credentials] linked to a remote access [Application] without an associated {ConditionalAuthentication}.</t>
+  </si>
+  <si>
+    <t>Identifies service account [Identity] with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>Identifies user [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Identifies [Data] linked to an [Application] without associated {encryptCreds}.</t>
+  </si>
+  <si>
+    <t>Identifies [Information] linked to [Data] lacking associated {encryptCreds}.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +179,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,6 +220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +558,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -571,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -580,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
@@ -592,20 +596,20 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -620,52 +624,50 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -673,12 +675,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
@@ -693,15 +695,15 @@
         <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -716,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB6A62-0034-4E39-ABB9-C3BB1CC69CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438B4C6E-BB2F-4393-963D-1414AFCE0384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
+    <workbookView xWindow="-38505" yWindow="2310" windowWidth="24390" windowHeight="20985" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Identifies service account [Identity] with {highPrivAppIAMs} association.</t>
   </si>
   <si>
-    <t>Identifies user [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
-  </si>
-  <si>
     <t>Identity</t>
   </si>
   <si>
@@ -153,6 +150,51 @@
   </si>
   <si>
     <t>Identifies [Information] linked to [Data] lacking associated {encryptCreds}.</t>
+  </si>
+  <si>
+    <t>T1078,T1087,T1072,T1021</t>
+  </si>
+  <si>
+    <t>M1027,M1036,M1035,M1030,M1033</t>
+  </si>
+  <si>
+    <t>Identifies a [User] associated [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>highPrivMFA</t>
+  </si>
+  <si>
+    <t>Identity, Credentials, Priviliges</t>
+  </si>
+  <si>
+    <t>Missing Multi-Factor Authentication (MFA) on accounts with high privileges may enable lateral movements and unauthorized access to resources.</t>
+  </si>
+  <si>
+    <t>Identifies [Credentials] linked to a [User] associated [Identity] with extended priviliges and without an associated {ConditionalAuthentication}.</t>
+  </si>
+  <si>
+    <t>Vuln</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>userPhising</t>
+  </si>
+  <si>
+    <t>Identifies [RoutingFirewall] where a [User] exists but [IDPS] is missing.</t>
+  </si>
+  <si>
+    <t>User accounts may be target for phising attempts where  malicious attachments or links may be detected and blocked by an IDS/IPS.</t>
+  </si>
+  <si>
+    <t>User, Identity, Credentials</t>
+  </si>
+  <si>
+    <t>T1566, T1534, T1056</t>
+  </si>
+  <si>
+    <t>M1049, M1031, M1017</t>
   </si>
 </sst>
 </file>
@@ -555,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -627,12 +669,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
@@ -648,6 +707,29 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -664,7 +746,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -680,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
@@ -703,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -719,6 +807,16 @@
       </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438B4C6E-BB2F-4393-963D-1414AFCE0384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD6D652-045F-4694-BA0C-948AB665098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="2310" windowWidth="24390" windowHeight="20985" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
+    <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Identity</t>
   </si>
   <si>
-    <t>Identifies [Data] linked to an [Application] without associated {encryptCreds}.</t>
-  </si>
-  <si>
-    <t>Identifies [Information] linked to [Data] lacking associated {encryptCreds}.</t>
-  </si>
-  <si>
     <t>T1078,T1087,T1072,T1021</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>Identifies a [User] associated [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
   </si>
   <si>
-    <t>highPrivMFA</t>
-  </si>
-  <si>
     <t>Identity, Credentials, Priviliges</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>Identifies [Credentials] linked to a [User] associated [Identity] with extended priviliges and without an associated {ConditionalAuthentication}.</t>
   </si>
   <si>
-    <t>Vuln</t>
-  </si>
-  <si>
     <t>Network</t>
   </si>
   <si>
@@ -195,13 +183,64 @@
   </si>
   <si>
     <t>M1049, M1031, M1017</t>
+  </si>
+  <si>
+    <t>M1, M2</t>
+  </si>
+  <si>
+    <t>highPrivAccountsMFA</t>
+  </si>
+  <si>
+    <t>Identifies [Information] linked to a [Data] where associated {encryptCreds} are missing.</t>
+  </si>
+  <si>
+    <t>Identifies [Data] linked to an [Application] where associated {encryptCreds} are missing.</t>
+  </si>
+  <si>
+    <t>Vuln exploit</t>
+  </si>
+  <si>
+    <t>Identifies [Application] linked to a [SoftwareVulnerability] with association {ingoingAppConnections} to a [Network] outside DMZ.</t>
+  </si>
+  <si>
+    <t>exploitVulnerablePublicApp</t>
+  </si>
+  <si>
+    <t>Application with known vulnerabilities accessible from the internet may be exploited by attackers to gain unauthorized access to the network and resources.</t>
+  </si>
+  <si>
+    <t>Application, SoftwareVulnerability</t>
+  </si>
+  <si>
+    <t>T1190</t>
+  </si>
+  <si>
+    <t>M1030, M1051, M1016</t>
+  </si>
+  <si>
+    <t>exploitVulnerableApp</t>
+  </si>
+  <si>
+    <t>Identifies [SoftwareVulnerability] linked to an [Application] or [SoftwareProduct] with associated [Identity].</t>
+  </si>
+  <si>
+    <t>Application, SoftwareProduct, SoftwareVulnerability</t>
+  </si>
+  <si>
+    <t>T1203, T1211,T1068</t>
+  </si>
+  <si>
+    <t>M1051, M1048</t>
+  </si>
+  <si>
+    <t>Applications with known vulnerabilities may be exploited by attackers to elevate privileges or to bypass security features.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,12 +260,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,7 +295,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -671,27 +703,27 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
@@ -711,25 +743,25 @@
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -763,12 +795,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
@@ -786,12 +818,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -809,14 +841,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD6D652-045F-4694-BA0C-948AB665098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2910C-CA7E-442A-B0B1-721B555CB712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Application, Identity, Credentials</t>
   </si>
   <si>
-    <t>Encryption</t>
-  </si>
-  <si>
     <t>unencryptedData</t>
   </si>
   <si>
@@ -234,6 +231,27 @@
   </si>
   <si>
     <t>Applications with known vulnerabilities may be exploited by attackers to elevate privileges or to bypass security features.</t>
+  </si>
+  <si>
+    <t>Data storage</t>
+  </si>
+  <si>
+    <t>Identifies [Network] with {ingoingNetConnections} association to a [RoutingFirewall].</t>
+  </si>
+  <si>
+    <t>A network that allows ingoing traffic may enable active reconnaissance scans that probes infrastructure via network traffic to gather information.</t>
+  </si>
+  <si>
+    <t>Network, ConnectionRule</t>
+  </si>
+  <si>
+    <t>T1595, T1590</t>
+  </si>
+  <si>
+    <t>M1056</t>
+  </si>
+  <si>
+    <t>activeNetworkScan</t>
   </si>
 </sst>
 </file>
@@ -629,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -649,33 +667,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -683,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -695,73 +713,73 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -769,126 +787,146 @@
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2910C-CA7E-442A-B0B1-721B555CB712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E5EA7-F27D-4A25-8762-94D5C4001832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -164,18 +164,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>userPhising</t>
-  </si>
-  <si>
-    <t>Identifies [RoutingFirewall] where a [User] exists but [IDPS] is missing.</t>
-  </si>
-  <si>
-    <t>User accounts may be target for phising attempts where  malicious attachments or links may be detected and blocked by an IDS/IPS.</t>
-  </si>
-  <si>
-    <t>User, Identity, Credentials</t>
-  </si>
-  <si>
     <t>T1566, T1534, T1056</t>
   </si>
   <si>
@@ -252,6 +240,36 @@
   </si>
   <si>
     <t>activeNetworkScan</t>
+  </si>
+  <si>
+    <t>userExposedNetworks</t>
+  </si>
+  <si>
+    <t>Identifies [Network] where a [User] exists but [IDPS] or other security identified [Application] is missing.</t>
+  </si>
+  <si>
+    <t>Networks without any security tool may faciliate user targeted attack such as phising to deliver malicious attachments or links which are not detected and blocked.</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>userExposedHardware</t>
+  </si>
+  <si>
+    <t>Identifies [Hardware] associated with a [User] and with {hostHardware} association to a [Network] linked [Application].</t>
+  </si>
+  <si>
+    <t>Adversaries may deliver malware through removable media such as USB and use the Autorun features when inserted into hardware to gain access to the network and resources. Alternatively, adversaries may introduce hardware devices into a system or network to gain access.</t>
+  </si>
+  <si>
+    <t>T1200, T1091</t>
+  </si>
+  <si>
+    <t>M1034, M1040</t>
+  </si>
+  <si>
+    <t>Network, User</t>
   </si>
 </sst>
 </file>
@@ -647,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -721,7 +739,7 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
@@ -759,29 +777,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
@@ -810,7 +805,7 @@
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>15</v>
@@ -841,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
@@ -859,74 +854,128 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="F25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>70</v>
+    </row>
+    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E5EA7-F27D-4A25-8762-94D5C4001832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B1905-A072-469B-8CAB-5767112F30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>T1555, T1003, T1528, T1649, T1558, T1539, T1552</t>
-  </si>
-  <si>
-    <t>M1047, M1041, M1027, M1026, M1022, M1017, M1032, M1043, M1040</t>
-  </si>
-  <si>
     <t>M1036, M1032, M1030, M1017</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>T1199, T1078</t>
   </si>
   <si>
-    <t>Identity &amp; Authentication</t>
-  </si>
-  <si>
     <t>shadowAdmin</t>
   </si>
   <si>
@@ -128,18 +119,12 @@
     <t>highPrivServiceAccounts</t>
   </si>
   <si>
-    <t>Identity, Priviliges</t>
-  </si>
-  <si>
     <t>Existence of service, support or any other non user accounts with excessive privileges may facilitate lateral movement and access to network resources.</t>
   </si>
   <si>
     <t>Identifies [Credentials] linked to a remote access [Application] without an associated {ConditionalAuthentication}.</t>
   </si>
   <si>
-    <t>Identifies service account [Identity] with {highPrivAppIAMs} association.</t>
-  </si>
-  <si>
     <t>Identity</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>Identifies a [User] associated [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
   </si>
   <si>
-    <t>Identity, Credentials, Priviliges</t>
-  </si>
-  <si>
     <t>Missing Multi-Factor Authentication (MFA) on accounts with high privileges may enable lateral movements and unauthorized access to resources.</t>
   </si>
   <si>
@@ -164,9 +146,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>T1566, T1534, T1056</t>
-  </si>
-  <si>
     <t>M1049, M1031, M1017</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
     <t>userExposedHardware</t>
   </si>
   <si>
-    <t>Identifies [Hardware] associated with a [User] and with {hostHardware} association to a [Network] linked [Application].</t>
-  </si>
-  <si>
     <t>Adversaries may deliver malware through removable media such as USB and use the Autorun features when inserted into hardware to gain access to the network and resources. Alternatively, adversaries may introduce hardware devices into a system or network to gain access.</t>
   </si>
   <si>
@@ -270,6 +246,78 @@
   </si>
   <si>
     <t>Network, User</t>
+  </si>
+  <si>
+    <t>T1078, T1110</t>
+  </si>
+  <si>
+    <t>M1032, M1027, M1026</t>
+  </si>
+  <si>
+    <t>T1552, T1539, T1555</t>
+  </si>
+  <si>
+    <t>M1041, M1047, M1027</t>
+  </si>
+  <si>
+    <t>Identifies [Hardware] with {hostHardware} association to a [Network] linked [Application] where a [User] is not matching name of [Hardware].</t>
+  </si>
+  <si>
+    <t>zoneExposedHardware</t>
+  </si>
+  <si>
+    <t>Identifies [Hardware] where a [User] is not associated with the [PhysicalZone] linked to the [Hardware].</t>
+  </si>
+  <si>
+    <t>Hardware, PhysicalZone</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2,M3</t>
+  </si>
+  <si>
+    <t>Identity &amp; Access</t>
+  </si>
+  <si>
+    <t>T1566, T1534, T1056, T1204</t>
+  </si>
+  <si>
+    <t>Identifies [Identity] with {memberOf} association to a [Group] where the [Identity] has different privileges than the [Group] on an [Application].</t>
+  </si>
+  <si>
+    <t>Misconfigured privileges may enable unauthorized access and permissions to applications in a network.</t>
+  </si>
+  <si>
+    <t>T1078</t>
+  </si>
+  <si>
+    <t>M1026</t>
+  </si>
+  <si>
+    <t>Identifies [Identity] with {memberOf} association to a [Group] where the [Identity] has different privileges than the [Group] on a [Data].</t>
+  </si>
+  <si>
+    <t>Misconfigured privileges may enable unauthorized access and permissions to resources.</t>
+  </si>
+  <si>
+    <t>Identity, Group, Application</t>
+  </si>
+  <si>
+    <t>Identity, Group, Data</t>
+  </si>
+  <si>
+    <t>Identity, Credentials</t>
+  </si>
+  <si>
+    <t>Identifies [Identity] matching service account with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>groupIdentityAppMismatch</t>
+  </si>
+  <si>
+    <t>groupIdentityDataMismatch</t>
   </si>
 </sst>
 </file>
@@ -665,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -685,33 +733,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -719,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -731,81 +779,127 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -813,22 +907,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -836,146 +930,169 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>27</v>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B1905-A072-469B-8CAB-5767112F30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88175CA-C3EB-4903-A7E8-30A243701A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -113,9 +113,6 @@
     <t>M2</t>
   </si>
   <si>
-    <t>M1,M2</t>
-  </si>
-  <si>
     <t>highPrivServiceAccounts</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>M1027,M1036,M1035,M1030,M1033</t>
   </si>
   <si>
-    <t>Identifies a [User] associated [Identity] linked to non-admin/root with {highPrivAppIAMs} association.</t>
-  </si>
-  <si>
     <t>Missing Multi-Factor Authentication (MFA) on accounts with high privileges may enable lateral movements and unauthorized access to resources.</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>M1049, M1031, M1017</t>
   </si>
   <si>
-    <t>M1, M2</t>
-  </si>
-  <si>
     <t>highPrivAccountsMFA</t>
   </si>
   <si>
@@ -161,12 +152,6 @@
     <t>Identifies [Data] linked to an [Application] where associated {encryptCreds} are missing.</t>
   </si>
   <si>
-    <t>Vuln exploit</t>
-  </si>
-  <si>
-    <t>Identifies [Application] linked to a [SoftwareVulnerability] with association {ingoingAppConnections} to a [Network] outside DMZ.</t>
-  </si>
-  <si>
     <t>exploitVulnerablePublicApp</t>
   </si>
   <si>
@@ -200,12 +185,6 @@
     <t>Applications with known vulnerabilities may be exploited by attackers to elevate privileges or to bypass security features.</t>
   </si>
   <si>
-    <t>Data storage</t>
-  </si>
-  <si>
-    <t>Identifies [Network] with {ingoingNetConnections} association to a [RoutingFirewall].</t>
-  </si>
-  <si>
     <t>A network that allows ingoing traffic may enable active reconnaissance scans that probes infrastructure via network traffic to gather information.</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>userExposedNetworks</t>
   </si>
   <si>
-    <t>Identifies [Network] where a [User] exists but [IDPS] or other security identified [Application] is missing.</t>
-  </si>
-  <si>
     <t>Networks without any security tool may faciliate user targeted attack such as phising to deliver malicious attachments or links which are not detected and blocked.</t>
   </si>
   <si>
@@ -281,9 +257,6 @@
     <t>Identity &amp; Access</t>
   </si>
   <si>
-    <t>T1566, T1534, T1056, T1204</t>
-  </si>
-  <si>
     <t>Identifies [Identity] with {memberOf} association to a [Group] where the [Identity] has different privileges than the [Group] on an [Application].</t>
   </si>
   <si>
@@ -293,6 +266,9 @@
     <t>T1078</t>
   </si>
   <si>
+    <t>Identity, Group, Privileges, Application</t>
+  </si>
+  <si>
     <t>M1026</t>
   </si>
   <si>
@@ -302,22 +278,79 @@
     <t>Misconfigured privileges may enable unauthorized access and permissions to resources.</t>
   </si>
   <si>
-    <t>Identity, Group, Application</t>
-  </si>
-  <si>
-    <t>Identity, Group, Data</t>
+    <t>Identity, Group, Privileges, Data</t>
   </si>
   <si>
     <t>Identity, Credentials</t>
   </si>
   <si>
-    <t>Identifies [Identity] matching service account with {highPrivAppIAMs} association.</t>
-  </si>
-  <si>
     <t>groupIdentityAppMismatch</t>
   </si>
   <si>
     <t>groupIdentityDataMismatch</t>
+  </si>
+  <si>
+    <t>Identifies [Network] with linked [Application] which is not identified as DMZ but with {ingoingNetConnections} association to a [RoutingFirewall].</t>
+  </si>
+  <si>
+    <t>T1566, T1204, T1534</t>
+  </si>
+  <si>
+    <t>nonSegmentedPublicApp</t>
+  </si>
+  <si>
+    <t>Identifies [Application] with name matching as an internet-facing service with {ingoingAppConnections} association to a [Network] that is not identified as DMZ.</t>
+  </si>
+  <si>
+    <t>Internet facing applications that are not segmented from the internal network may be exploited by attackers to gain unauthorized access to the network and resources.</t>
+  </si>
+  <si>
+    <t>T1190, T1133, T1210</t>
+  </si>
+  <si>
+    <t>M1030</t>
+  </si>
+  <si>
+    <t>Identifies [Application] linked to a [SoftwareVulnerability] with association {ingoingAppConnections} to a [Network] not identified as DMZ.</t>
+  </si>
+  <si>
+    <t>Identifies [Network] where [User] exists but [IDPS] or other [Application] identified as a security tool is missing.</t>
+  </si>
+  <si>
+    <t>Identifies [Identity] with name matching of service account  with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>Identifies a [User] with associated [Identity] matching name to non-admin/root with {highPrivAppIAMs} association.</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>supplyChainVulnApp</t>
+  </si>
+  <si>
+    <t>Identifies [Application] with associated [SoftwareProduct] where no {protectedApps} association to an [IDPS] exists.</t>
+  </si>
+  <si>
+    <t>Supply chain compromise may enable adversaries to exploit vulnerabilities in software to gain unauthorized access to the network and resources.</t>
+  </si>
+  <si>
+    <t>Application, SoftwareProduct</t>
+  </si>
+  <si>
+    <t>T1195</t>
+  </si>
+  <si>
+    <t>M1016, M1051, M1033</t>
+  </si>
+  <si>
+    <t>DataResource</t>
+  </si>
+  <si>
+    <t>ComputeResource</t>
+  </si>
+  <si>
+    <t>M1, M2,M3</t>
   </si>
 </sst>
 </file>
@@ -713,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -759,7 +792,7 @@
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -767,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -787,22 +820,22 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
@@ -813,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>18</v>
@@ -833,73 +866,76 @@
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -907,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>13</v>
@@ -916,13 +952,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -930,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -939,160 +975,212 @@
         <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88175CA-C3EB-4903-A7E8-30A243701A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8549D248-13E6-4EE5-8C38-F523BEC339E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>M1, M2,M3</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -984,6 +987,34 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>95</v>
@@ -1061,29 +1092,6 @@
       </c>
       <c r="H30" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8549D248-13E6-4EE5-8C38-F523BEC339E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBEBD1D-7BA0-4D51-89CB-496290F479DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -354,6 +354,39 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>dataAiTM</t>
+  </si>
+  <si>
+    <t>Identifies [Data] with association {transitData} to a [Network] where [User] have physical access to the [Network].</t>
+  </si>
+  <si>
+    <t>An adversary may attempt to position themselves to intercept data in transit between two network devices to intercept and collect data.</t>
+  </si>
+  <si>
+    <t>T1557</t>
+  </si>
+  <si>
+    <t>M1041, M1037, M1035</t>
+  </si>
+  <si>
+    <t>containerCompromise</t>
+  </si>
+  <si>
+    <t>Adversaries may deploy malicious containers to facilitate execution or evade defenses. Alternatively, they may try to break out of a container to gain access to the underlying host.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>T1610, T1611</t>
+  </si>
+  <si>
+    <t>M1047, M1048, M1038</t>
+  </si>
+  <si>
+    <t>Identifies [Application] with name matching of containerized services where [Identity] with extended privileges exists.</t>
   </si>
 </sst>
 </file>
@@ -749,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -987,6 +1020,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>105</v>
@@ -1094,26 +1147,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1189,6 +1242,26 @@
       </c>
       <c r="H38" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBEBD1D-7BA0-4D51-89CB-496290F479DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494336A4-2120-4990-B66A-00BDE5A72D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="2190" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
+    <workbookView xWindow="-38520" yWindow="2340" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -387,6 +387,54 @@
   </si>
   <si>
     <t>Identifies [Application] with name matching of containerized services where [Identity] with extended privileges exists.</t>
+  </si>
+  <si>
+    <t>accountManagerMFA</t>
+  </si>
+  <si>
+    <t>Identifies [Identity] with {managers} association to another [Group], [Identity], or [Privileges] where association {ConditionalAuthentication} is missing.</t>
+  </si>
+  <si>
+    <t>Adversaries may modify permissions or credentials to compromised accounts to maintain or elevate access to a network and its systems.</t>
+  </si>
+  <si>
+    <t>M1032, M1026</t>
+  </si>
+  <si>
+    <t>T1098, T1136</t>
+  </si>
+  <si>
+    <t>userImpersonation</t>
+  </si>
+  <si>
+    <t>Identifies [User] with an associated [Identity] that is linked to another [User].</t>
+  </si>
+  <si>
+    <t>Adversaries may try to impersonate a trusted person in order to persuade and trick other users conduct actions on their behalf.</t>
+  </si>
+  <si>
+    <t>networkPerimeterCompromise</t>
+  </si>
+  <si>
+    <t>Identifies [RoutingFirewall] with associated [Application] or [Hardware] where an [Identity] is linked with it.</t>
+  </si>
+  <si>
+    <t>By compromising perimeter network devices adversaries may try to bridge network boundaries to bypass restrictions on traffic routing.</t>
+  </si>
+  <si>
+    <t>RoutingFirewall</t>
+  </si>
+  <si>
+    <t>T1599</t>
+  </si>
+  <si>
+    <t>M1043, M1032, M1027</t>
+  </si>
+  <si>
+    <t>T1656</t>
+  </si>
+  <si>
+    <t>M1019, M1017</t>
   </si>
 </sst>
 </file>
@@ -785,7 +833,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -969,6 +1017,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>102</v>
@@ -1068,6 +1136,26 @@
         <v>104</v>
       </c>
     </row>
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>95</v>
@@ -1168,6 +1256,26 @@
       </c>
       <c r="H31" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494336A4-2120-4990-B66A-00BDE5A72D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509200EA-8E3D-41D1-AFF5-AA8BBE5B9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2340" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
   <si>
     <t>remoteAccessMFA</t>
   </si>
@@ -44,9 +45,6 @@
     <t>T1110, T1133, T1078</t>
   </si>
   <si>
-    <t>Application, Identity, Credentials</t>
-  </si>
-  <si>
     <t>unencryptedData</t>
   </si>
   <si>
@@ -119,9 +117,6 @@
     <t>Existence of service, support or any other non user accounts with excessive privileges may facilitate lateral movement and access to network resources.</t>
   </si>
   <si>
-    <t>Identifies [Credentials] linked to a remote access [Application] without an associated {ConditionalAuthentication}.</t>
-  </si>
-  <si>
     <t>Identity</t>
   </si>
   <si>
@@ -134,9 +129,6 @@
     <t>Missing Multi-Factor Authentication (MFA) on accounts with high privileges may enable lateral movements and unauthorized access to resources.</t>
   </si>
   <si>
-    <t>Identifies [Credentials] linked to a [User] associated [Identity] with extended priviliges and without an associated {ConditionalAuthentication}.</t>
-  </si>
-  <si>
     <t>Network</t>
   </si>
   <si>
@@ -221,21 +213,12 @@
     <t>M1034, M1040</t>
   </si>
   <si>
-    <t>Network, User</t>
-  </si>
-  <si>
     <t>T1078, T1110</t>
   </si>
   <si>
     <t>M1032, M1027, M1026</t>
   </si>
   <si>
-    <t>T1552, T1539, T1555</t>
-  </si>
-  <si>
-    <t>M1041, M1047, M1027</t>
-  </si>
-  <si>
     <t>Identifies [Hardware] with {hostHardware} association to a [Network] linked [Application] where a [User] is not matching name of [Hardware].</t>
   </si>
   <si>
@@ -263,12 +246,6 @@
     <t>Misconfigured privileges may enable unauthorized access and permissions to applications in a network.</t>
   </si>
   <si>
-    <t>T1078</t>
-  </si>
-  <si>
-    <t>Identity, Group, Privileges, Application</t>
-  </si>
-  <si>
     <t>M1026</t>
   </si>
   <si>
@@ -278,9 +255,6 @@
     <t>Misconfigured privileges may enable unauthorized access and permissions to resources.</t>
   </si>
   <si>
-    <t>Identity, Group, Privileges, Data</t>
-  </si>
-  <si>
     <t>Identity, Credentials</t>
   </si>
   <si>
@@ -314,15 +288,9 @@
     <t>Identifies [Application] linked to a [SoftwareVulnerability] with association {ingoingAppConnections} to a [Network] not identified as DMZ.</t>
   </si>
   <si>
-    <t>Identifies [Network] where [User] exists but [IDPS] or other [Application] identified as a security tool is missing.</t>
-  </si>
-  <si>
     <t>Identifies [Identity] with name matching of service account  with {highPrivAppIAMs} association.</t>
   </si>
   <si>
-    <t>Identifies a [User] with associated [Identity] matching name to non-admin/root with {highPrivAppIAMs} association.</t>
-  </si>
-  <si>
     <t>Vulnerability</t>
   </si>
   <si>
@@ -365,9 +333,6 @@
     <t>An adversary may attempt to position themselves to intercept data in transit between two network devices to intercept and collect data.</t>
   </si>
   <si>
-    <t>T1557</t>
-  </si>
-  <si>
     <t>M1041, M1037, M1035</t>
   </si>
   <si>
@@ -380,9 +345,6 @@
     <t>Application</t>
   </si>
   <si>
-    <t>T1610, T1611</t>
-  </si>
-  <si>
     <t>M1047, M1048, M1038</t>
   </si>
   <si>
@@ -401,9 +363,6 @@
     <t>M1032, M1026</t>
   </si>
   <si>
-    <t>T1098, T1136</t>
-  </si>
-  <si>
     <t>userImpersonation</t>
   </si>
   <si>
@@ -416,9 +375,6 @@
     <t>networkPerimeterCompromise</t>
   </si>
   <si>
-    <t>Identifies [RoutingFirewall] with associated [Application] or [Hardware] where an [Identity] is linked with it.</t>
-  </si>
-  <si>
     <t>By compromising perimeter network devices adversaries may try to bridge network boundaries to bypass restrictions on traffic routing.</t>
   </si>
   <si>
@@ -435,6 +391,126 @@
   </si>
   <si>
     <t>M1019, M1017</t>
+  </si>
+  <si>
+    <t>Identifies [RoutingFirewall] with associated [Application] or [Hardware] with an [Identity] linked to it.</t>
+  </si>
+  <si>
+    <t>T1557,T1040</t>
+  </si>
+  <si>
+    <t>identityDiscovery</t>
+  </si>
+  <si>
+    <t>Identifies [Application] with multiple associated [Identity] with different types of privileges on the [Application].</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to enumerate valid accounts on compromised networks or systems to facilitate lateral movement and privilege escalation.</t>
+  </si>
+  <si>
+    <t>T1087</t>
+  </si>
+  <si>
+    <t>M1028</t>
+  </si>
+  <si>
+    <t>taintSharedStorage</t>
+  </si>
+  <si>
+    <t>Shared storage locations may be abused by adversaries to deliver payloads or move laterally within a network.</t>
+  </si>
+  <si>
+    <t>Application,Hardware</t>
+  </si>
+  <si>
+    <t>T1080</t>
+  </si>
+  <si>
+    <t>M1022, M1049</t>
+  </si>
+  <si>
+    <t>T1610, T1611, T1613</t>
+  </si>
+  <si>
+    <t>T1078, T1613, T1046</t>
+  </si>
+  <si>
+    <t>M1041, M1047, M1027, M1057</t>
+  </si>
+  <si>
+    <t>remoteAccessC2</t>
+  </si>
+  <si>
+    <t>Identifies [Application] with name matching of remote access tools where no {protectedApps} association to an [IDPS] exists.</t>
+  </si>
+  <si>
+    <t>Legitimate remote access tools may be exploited by adversaries to establish command and control channels to control compromised systems and exfiltrate data.</t>
+  </si>
+  <si>
+    <t>M1031, M1037</t>
+  </si>
+  <si>
+    <t>T1219,T1041</t>
+  </si>
+  <si>
+    <t>T1098, T1136,T1531</t>
+  </si>
+  <si>
+    <t>dataDestruction</t>
+  </si>
+  <si>
+    <t>Identifies [Data] where [Identity] is associated with {writingIAMs} or {deletingIAMs}</t>
+  </si>
+  <si>
+    <t>Adversaries may attempt to destroy data to disrupt operations by deleting or corrupting data.</t>
+  </si>
+  <si>
+    <t>M1053</t>
+  </si>
+  <si>
+    <t>T1552, T1539, T1555, T1005, T1565</t>
+  </si>
+  <si>
+    <t>T1485, T1486, T1561</t>
+  </si>
+  <si>
+    <t>M1, M2</t>
+  </si>
+  <si>
+    <t>Identifies [Credentials] linked to [Application] with name matching of remote access where association {ConditionalAuthentication} is missing.</t>
+  </si>
+  <si>
+    <t>Compromised network/system</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Physical access</t>
+  </si>
+  <si>
+    <t>Identifies [Data] that is hosted on [Hardware] or contained in [Application] where multiple [Identity] have write privileges indicating shared storage.</t>
+  </si>
+  <si>
+    <t>Identifies [Credentials] linked to a [User] associated [Identity] with extended privileges where association {ConditionalAuthentication} is missing.</t>
+  </si>
+  <si>
+    <t>Identifies [User] associated [Identity] with {highPrivAppIAMs} association to [Application] where name is not matching admin/root.</t>
+  </si>
+  <si>
+    <t>Identity, Group, Privileges</t>
+  </si>
+  <si>
+    <t>Identifies [Network] where [User] exists but [IDPS] or other [Application] matching a security tool is missing.</t>
+  </si>
+  <si>
+    <t>User, Network</t>
+  </si>
+  <si>
+    <t>Network, ConnectionRule, Application</t>
+  </si>
+  <si>
+    <t>Adversery Prerequisite</t>
   </si>
 </sst>
 </file>
@@ -830,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -843,533 +919,720 @@
     <col min="3" max="3" width="89.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="63.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="35.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I38" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="I40" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>115</v>
+      <c r="F41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/patternsDesign.xlsx
+++ b/patternsDesign.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JensE\Documents\ImportDocs\exjob\malPatEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509200EA-8E3D-41D1-AFF5-AA8BBE5B9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D6C52-1C7B-40E8-9BAF-675F3B91D0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="2340" windowWidth="38640" windowHeight="21120" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
+    <workbookView xWindow="-35985" yWindow="4635" windowWidth="23010" windowHeight="13545" xr2:uid="{483EB3CA-C8CE-46A0-96CF-956BBBC5F2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -237,9 +236,6 @@
     <t>M2,M3</t>
   </si>
   <si>
-    <t>Identity &amp; Access</t>
-  </si>
-  <si>
     <t>Identifies [Identity] with {memberOf} association to a [Group] where the [Identity] has different privileges than the [Group] on an [Application].</t>
   </si>
   <si>
@@ -312,12 +308,6 @@
     <t>M1016, M1051, M1033</t>
   </si>
   <si>
-    <t>DataResource</t>
-  </si>
-  <si>
-    <t>ComputeResource</t>
-  </si>
-  <si>
     <t>M1, M2,M3</t>
   </si>
   <si>
@@ -510,7 +500,16 @@
     <t>Network, ConnectionRule, Application</t>
   </si>
   <si>
-    <t>Adversery Prerequisite</t>
+    <t>Adversary Prerequisite</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>DataResources</t>
+  </si>
+  <si>
+    <t>ComputeResources</t>
   </si>
 </sst>
 </file>
@@ -908,16 +907,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44032789-62F5-4A42-883C-D224EEED2797}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="89.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="96.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="99.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.5546875" style="3" customWidth="1"/>
@@ -952,12 +951,12 @@
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -965,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>1</v>
@@ -983,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -991,13 +990,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
@@ -1009,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
@@ -1035,59 +1034,59 @@
         <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -1113,64 +1112,64 @@
         <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,16 +1186,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,73 +1212,73 @@
         <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,56 +1286,56 @@
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1343,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>36</v>
@@ -1362,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1388,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1400,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>46</v>
@@ -1419,64 +1418,64 @@
         <v>65</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1501,7 @@
         <v>65</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1528,111 +1527,111 @@
         <v>64</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
